--- a/.sandbox/SEemisor.xlsx
+++ b/.sandbox/SEemisor.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>DATOS DEL CLIENTE</t>
   </si>
@@ -19,39 +19,72 @@
     <t>RFC:</t>
   </si>
   <si>
+    <t>BCA150508BCA</t>
+  </si>
+  <si>
     <t>RAZÓN SOCIAL:</t>
   </si>
   <si>
+    <t>BENETTI CASA S. DE RL DE CV</t>
+  </si>
+  <si>
     <t>DOMICILIO FISCAL:</t>
   </si>
   <si>
+    <t>Av. Prolongación Bosques Ext.1813, Local 153-154 Lomas de Vista Hermosa, C.P. 05100 Cuajimalpa de Morelos</t>
+  </si>
+  <si>
     <t>RÉGIMEN FISCAL:</t>
   </si>
   <si>
+    <t>Persona Moral</t>
+  </si>
+  <si>
     <t>CÓDIGO POSTAL:</t>
   </si>
   <si>
+    <t>05100</t>
+  </si>
+  <si>
     <t>CLAVE DEL PAÍS DE ORIGEN:</t>
   </si>
   <si>
+    <t>CONTENEDOR 14</t>
+  </si>
+  <si>
     <t>DIRECCIÓN DE ENTREGA</t>
   </si>
   <si>
     <t>NOMBRE DEL DESTINATARIO:</t>
   </si>
   <si>
+    <t>BENETTI CASA BODEGA CUAJIMALPA</t>
+  </si>
+  <si>
     <t>DOMICILIO DE ENTREGA:</t>
   </si>
   <si>
+    <t>Cuajimalpa Av. Juárez No. 49 Cuajimalpa Ciudad de México C.P.05000</t>
+  </si>
+  <si>
     <t>HORARIO:</t>
   </si>
   <si>
+    <t>21 hrs a 3:00 hrs</t>
+  </si>
+  <si>
     <t>CONTACTO:</t>
   </si>
   <si>
+    <t>Javier Hernandez</t>
+  </si>
+  <si>
     <t>TELEFONO:</t>
   </si>
   <si>
+    <t>5559600322</t>
+  </si>
+  <si>
     <t>REFERENCIA INTERNA:</t>
   </si>
   <si>
@@ -61,16 +94,31 @@
     <t>PEDIMIENTO:</t>
   </si>
   <si>
+    <t>Pedimento</t>
+  </si>
+  <si>
     <t>CONTENEDOR:</t>
   </si>
   <si>
+    <t>TestContenedor</t>
+  </si>
+  <si>
     <t>PESO BRUTO:</t>
   </si>
   <si>
+    <t>10 kg</t>
+  </si>
+  <si>
     <t>NÚMERO DE BULTOS:</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>MEDIDAS:</t>
+  </si>
+  <si>
+    <t>10 * 10 * 5</t>
   </si>
   <si>
     <t>Número de factura</t>
@@ -145,12 +193,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,39 +560,57 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -552,39 +621,54 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -595,58 +679,73 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -654,16 +753,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G37">
         <v>1</v>
